--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ThongTri/rpt_vdt_thongtri_hopthuc.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ThongTri/rpt_vdt_thongtri_hopthuc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\web\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\ThongTri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\ThongTri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +437,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -683,20 +689,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,7 +698,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -719,32 +745,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,27 +1283,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" style="8" customWidth="1"/>
-    <col min="5" max="6" width="5.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="8" customWidth="1"/>
-    <col min="12" max="26" width="8.6640625" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="8"/>
+    <col min="5" max="6" width="5.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="8" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1327,13 +1331,13 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1357,13 +1361,13 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1387,7 +1391,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1415,20 +1419,20 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1445,20 +1449,20 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1475,7 +1479,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1503,7 +1507,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1535,7 +1539,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1567,7 +1571,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1597,20 +1601,20 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1640,14 +1644,14 @@
       <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="20" t="s">
         <v>25</v>
       </c>
@@ -1672,14 +1676,14 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="22" t="s">
         <v>56</v>
       </c>
@@ -1699,7 +1703,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>62</v>
       </c>
@@ -1712,14 +1716,14 @@
       <c r="D14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="24" t="s">
         <v>57</v>
       </c>
@@ -1739,17 +1743,17 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="25"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1772,12 +1776,12 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="25"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1800,12 +1804,12 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="25"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1828,12 +1832,12 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="25"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1856,12 +1860,12 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="25"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1884,12 +1888,12 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="25"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1912,12 +1916,12 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="25"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1935,21 +1939,21 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="22" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +1973,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2027,7 +2031,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2035,9 +2039,9 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="12"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -2055,7 +2059,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2083,20 +2087,20 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="49" t="s">
-        <v>36</v>
-      </c>
+      <c r="G27" s="49"/>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="K27" s="49" t="s">
+        <v>36</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2114,23 +2118,23 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="41" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="31" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2148,23 +2152,23 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="48" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2182,23 +2186,23 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="41" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="50" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2215,13 +2219,15 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -2241,13 +2247,15 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -2268,23 +2276,23 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="48" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -29294,26 +29302,13 @@
       <c r="Z997" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="A33:C33"/>
+  <mergeCells count="29">
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="H25:J25"/>
@@ -29321,10 +29316,22 @@
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="E16:J16"/>
-    <mergeCell ref="D28:F28"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
@@ -29340,735 +29347,735 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="3" customWidth="1"/>
-    <col min="15" max="256" width="9.109375" style="3"/>
-    <col min="257" max="257" width="17.6640625" style="3" customWidth="1"/>
-    <col min="258" max="258" width="18.6640625" style="3" customWidth="1"/>
-    <col min="259" max="259" width="32.6640625" style="3" customWidth="1"/>
-    <col min="260" max="260" width="24.6640625" style="3" customWidth="1"/>
-    <col min="261" max="263" width="1.6640625" style="3" customWidth="1"/>
-    <col min="264" max="264" width="14.6640625" style="3" customWidth="1"/>
-    <col min="265" max="265" width="11.6640625" style="3" customWidth="1"/>
-    <col min="266" max="268" width="1.6640625" style="3" customWidth="1"/>
-    <col min="269" max="269" width="14.6640625" style="3" customWidth="1"/>
-    <col min="270" max="270" width="20.6640625" style="3" customWidth="1"/>
-    <col min="271" max="512" width="9.109375" style="3"/>
-    <col min="513" max="513" width="17.6640625" style="3" customWidth="1"/>
-    <col min="514" max="514" width="18.6640625" style="3" customWidth="1"/>
-    <col min="515" max="515" width="32.6640625" style="3" customWidth="1"/>
-    <col min="516" max="516" width="24.6640625" style="3" customWidth="1"/>
-    <col min="517" max="519" width="1.6640625" style="3" customWidth="1"/>
-    <col min="520" max="520" width="14.6640625" style="3" customWidth="1"/>
-    <col min="521" max="521" width="11.6640625" style="3" customWidth="1"/>
-    <col min="522" max="524" width="1.6640625" style="3" customWidth="1"/>
-    <col min="525" max="525" width="14.6640625" style="3" customWidth="1"/>
-    <col min="526" max="526" width="20.6640625" style="3" customWidth="1"/>
-    <col min="527" max="768" width="9.109375" style="3"/>
-    <col min="769" max="769" width="17.6640625" style="3" customWidth="1"/>
-    <col min="770" max="770" width="18.6640625" style="3" customWidth="1"/>
-    <col min="771" max="771" width="32.6640625" style="3" customWidth="1"/>
-    <col min="772" max="772" width="24.6640625" style="3" customWidth="1"/>
-    <col min="773" max="775" width="1.6640625" style="3" customWidth="1"/>
-    <col min="776" max="776" width="14.6640625" style="3" customWidth="1"/>
-    <col min="777" max="777" width="11.6640625" style="3" customWidth="1"/>
-    <col min="778" max="780" width="1.6640625" style="3" customWidth="1"/>
-    <col min="781" max="781" width="14.6640625" style="3" customWidth="1"/>
-    <col min="782" max="782" width="20.6640625" style="3" customWidth="1"/>
-    <col min="783" max="1024" width="9.109375" style="3"/>
-    <col min="1025" max="1025" width="17.6640625" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="32.6640625" style="3" customWidth="1"/>
-    <col min="1028" max="1028" width="24.6640625" style="3" customWidth="1"/>
-    <col min="1029" max="1031" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1032" max="1032" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1033" max="1033" width="11.6640625" style="3" customWidth="1"/>
-    <col min="1034" max="1036" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1037" max="1037" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1038" max="1038" width="20.6640625" style="3" customWidth="1"/>
-    <col min="1039" max="1280" width="9.109375" style="3"/>
-    <col min="1281" max="1281" width="17.6640625" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="32.6640625" style="3" customWidth="1"/>
-    <col min="1284" max="1284" width="24.6640625" style="3" customWidth="1"/>
-    <col min="1285" max="1287" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1288" max="1288" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1289" max="1289" width="11.6640625" style="3" customWidth="1"/>
-    <col min="1290" max="1292" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1293" max="1293" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1294" max="1294" width="20.6640625" style="3" customWidth="1"/>
-    <col min="1295" max="1536" width="9.109375" style="3"/>
-    <col min="1537" max="1537" width="17.6640625" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="32.6640625" style="3" customWidth="1"/>
-    <col min="1540" max="1540" width="24.6640625" style="3" customWidth="1"/>
-    <col min="1541" max="1543" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1544" max="1544" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1545" max="1545" width="11.6640625" style="3" customWidth="1"/>
-    <col min="1546" max="1548" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1549" max="1549" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1550" max="1550" width="20.6640625" style="3" customWidth="1"/>
-    <col min="1551" max="1792" width="9.109375" style="3"/>
-    <col min="1793" max="1793" width="17.6640625" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="32.6640625" style="3" customWidth="1"/>
-    <col min="1796" max="1796" width="24.6640625" style="3" customWidth="1"/>
-    <col min="1797" max="1799" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1800" max="1800" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1801" max="1801" width="11.6640625" style="3" customWidth="1"/>
-    <col min="1802" max="1804" width="1.6640625" style="3" customWidth="1"/>
-    <col min="1805" max="1805" width="14.6640625" style="3" customWidth="1"/>
-    <col min="1806" max="1806" width="20.6640625" style="3" customWidth="1"/>
-    <col min="1807" max="2048" width="9.109375" style="3"/>
-    <col min="2049" max="2049" width="17.6640625" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="32.6640625" style="3" customWidth="1"/>
-    <col min="2052" max="2052" width="24.6640625" style="3" customWidth="1"/>
-    <col min="2053" max="2055" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2056" max="2056" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2057" max="2057" width="11.6640625" style="3" customWidth="1"/>
-    <col min="2058" max="2060" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2061" max="2061" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2062" max="2062" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2063" max="2304" width="9.109375" style="3"/>
-    <col min="2305" max="2305" width="17.6640625" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="32.6640625" style="3" customWidth="1"/>
-    <col min="2308" max="2308" width="24.6640625" style="3" customWidth="1"/>
-    <col min="2309" max="2311" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2312" max="2312" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2313" max="2313" width="11.6640625" style="3" customWidth="1"/>
-    <col min="2314" max="2316" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2317" max="2317" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2318" max="2318" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2319" max="2560" width="9.109375" style="3"/>
-    <col min="2561" max="2561" width="17.6640625" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="32.6640625" style="3" customWidth="1"/>
-    <col min="2564" max="2564" width="24.6640625" style="3" customWidth="1"/>
-    <col min="2565" max="2567" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2568" max="2568" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2569" max="2569" width="11.6640625" style="3" customWidth="1"/>
-    <col min="2570" max="2572" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2573" max="2573" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2574" max="2574" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2575" max="2816" width="9.109375" style="3"/>
-    <col min="2817" max="2817" width="17.6640625" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="32.6640625" style="3" customWidth="1"/>
-    <col min="2820" max="2820" width="24.6640625" style="3" customWidth="1"/>
-    <col min="2821" max="2823" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2824" max="2824" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2825" max="2825" width="11.6640625" style="3" customWidth="1"/>
-    <col min="2826" max="2828" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2829" max="2829" width="14.6640625" style="3" customWidth="1"/>
-    <col min="2830" max="2830" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2831" max="3072" width="9.109375" style="3"/>
-    <col min="3073" max="3073" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="32.6640625" style="3" customWidth="1"/>
-    <col min="3076" max="3076" width="24.6640625" style="3" customWidth="1"/>
-    <col min="3077" max="3079" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3080" max="3080" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3081" max="3081" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3082" max="3084" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3085" max="3085" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3086" max="3086" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3087" max="3328" width="9.109375" style="3"/>
-    <col min="3329" max="3329" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="32.6640625" style="3" customWidth="1"/>
-    <col min="3332" max="3332" width="24.6640625" style="3" customWidth="1"/>
-    <col min="3333" max="3335" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3336" max="3336" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3337" max="3337" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3338" max="3340" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3341" max="3341" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3342" max="3342" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3343" max="3584" width="9.109375" style="3"/>
-    <col min="3585" max="3585" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="32.6640625" style="3" customWidth="1"/>
-    <col min="3588" max="3588" width="24.6640625" style="3" customWidth="1"/>
-    <col min="3589" max="3591" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3592" max="3592" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3593" max="3593" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3594" max="3596" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3597" max="3597" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3598" max="3598" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3599" max="3840" width="9.109375" style="3"/>
-    <col min="3841" max="3841" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="32.6640625" style="3" customWidth="1"/>
-    <col min="3844" max="3844" width="24.6640625" style="3" customWidth="1"/>
-    <col min="3845" max="3847" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3848" max="3848" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3849" max="3849" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3850" max="3852" width="1.6640625" style="3" customWidth="1"/>
-    <col min="3853" max="3853" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3854" max="3854" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3855" max="4096" width="9.109375" style="3"/>
-    <col min="4097" max="4097" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4100" max="4100" width="24.6640625" style="3" customWidth="1"/>
-    <col min="4101" max="4103" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4104" max="4104" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4105" max="4105" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4106" max="4108" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4109" max="4109" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4110" max="4110" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4111" max="4352" width="9.109375" style="3"/>
-    <col min="4353" max="4353" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4356" max="4356" width="24.6640625" style="3" customWidth="1"/>
-    <col min="4357" max="4359" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4360" max="4360" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4361" max="4361" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4362" max="4364" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4365" max="4365" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4366" max="4366" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4367" max="4608" width="9.109375" style="3"/>
-    <col min="4609" max="4609" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4612" max="4612" width="24.6640625" style="3" customWidth="1"/>
-    <col min="4613" max="4615" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4616" max="4616" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4617" max="4617" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4618" max="4620" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4621" max="4621" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4622" max="4622" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4623" max="4864" width="9.109375" style="3"/>
-    <col min="4865" max="4865" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4868" max="4868" width="24.6640625" style="3" customWidth="1"/>
-    <col min="4869" max="4871" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4872" max="4872" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4873" max="4873" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4874" max="4876" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4877" max="4877" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4878" max="4878" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4879" max="5120" width="9.109375" style="3"/>
-    <col min="5121" max="5121" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="32.6640625" style="3" customWidth="1"/>
-    <col min="5124" max="5124" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5125" max="5127" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5128" max="5128" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5129" max="5129" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5130" max="5132" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5133" max="5133" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5134" max="5134" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5135" max="5376" width="9.109375" style="3"/>
-    <col min="5377" max="5377" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="32.6640625" style="3" customWidth="1"/>
-    <col min="5380" max="5380" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5381" max="5383" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5384" max="5384" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5385" max="5385" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5386" max="5388" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5389" max="5389" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5390" max="5390" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5391" max="5632" width="9.109375" style="3"/>
-    <col min="5633" max="5633" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="32.6640625" style="3" customWidth="1"/>
-    <col min="5636" max="5636" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5637" max="5639" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5640" max="5640" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5641" max="5641" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5642" max="5644" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5645" max="5645" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5646" max="5646" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5647" max="5888" width="9.109375" style="3"/>
-    <col min="5889" max="5889" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="32.6640625" style="3" customWidth="1"/>
-    <col min="5892" max="5892" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5893" max="5895" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5896" max="5896" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5897" max="5897" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5898" max="5900" width="1.6640625" style="3" customWidth="1"/>
-    <col min="5901" max="5901" width="14.6640625" style="3" customWidth="1"/>
-    <col min="5902" max="5902" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5903" max="6144" width="9.109375" style="3"/>
-    <col min="6145" max="6145" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="32.6640625" style="3" customWidth="1"/>
-    <col min="6148" max="6148" width="24.6640625" style="3" customWidth="1"/>
-    <col min="6149" max="6151" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6152" max="6152" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6153" max="6153" width="11.6640625" style="3" customWidth="1"/>
-    <col min="6154" max="6156" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6157" max="6157" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6158" max="6158" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6159" max="6400" width="9.109375" style="3"/>
-    <col min="6401" max="6401" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="32.6640625" style="3" customWidth="1"/>
-    <col min="6404" max="6404" width="24.6640625" style="3" customWidth="1"/>
-    <col min="6405" max="6407" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6408" max="6408" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6409" max="6409" width="11.6640625" style="3" customWidth="1"/>
-    <col min="6410" max="6412" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6413" max="6413" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6414" max="6414" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6415" max="6656" width="9.109375" style="3"/>
-    <col min="6657" max="6657" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="32.6640625" style="3" customWidth="1"/>
-    <col min="6660" max="6660" width="24.6640625" style="3" customWidth="1"/>
-    <col min="6661" max="6663" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6664" max="6664" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6665" max="6665" width="11.6640625" style="3" customWidth="1"/>
-    <col min="6666" max="6668" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6669" max="6669" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6670" max="6670" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6671" max="6912" width="9.109375" style="3"/>
-    <col min="6913" max="6913" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="32.6640625" style="3" customWidth="1"/>
-    <col min="6916" max="6916" width="24.6640625" style="3" customWidth="1"/>
-    <col min="6917" max="6919" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6920" max="6920" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6921" max="6921" width="11.6640625" style="3" customWidth="1"/>
-    <col min="6922" max="6924" width="1.6640625" style="3" customWidth="1"/>
-    <col min="6925" max="6925" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6926" max="6926" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6927" max="7168" width="9.109375" style="3"/>
-    <col min="7169" max="7169" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="32.6640625" style="3" customWidth="1"/>
-    <col min="7172" max="7172" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7173" max="7175" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7176" max="7176" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7177" max="7177" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7178" max="7180" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7181" max="7181" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7182" max="7182" width="20.6640625" style="3" customWidth="1"/>
-    <col min="7183" max="7424" width="9.109375" style="3"/>
-    <col min="7425" max="7425" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="32.6640625" style="3" customWidth="1"/>
-    <col min="7428" max="7428" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7429" max="7431" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7432" max="7432" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7433" max="7433" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7434" max="7436" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7437" max="7437" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7438" max="7438" width="20.6640625" style="3" customWidth="1"/>
-    <col min="7439" max="7680" width="9.109375" style="3"/>
-    <col min="7681" max="7681" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="32.6640625" style="3" customWidth="1"/>
-    <col min="7684" max="7684" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7685" max="7687" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7688" max="7688" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7689" max="7689" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7690" max="7692" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7693" max="7693" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7694" max="7694" width="20.6640625" style="3" customWidth="1"/>
-    <col min="7695" max="7936" width="9.109375" style="3"/>
-    <col min="7937" max="7937" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="32.6640625" style="3" customWidth="1"/>
-    <col min="7940" max="7940" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7941" max="7943" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7944" max="7944" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7945" max="7945" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7946" max="7948" width="1.6640625" style="3" customWidth="1"/>
-    <col min="7949" max="7949" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7950" max="7950" width="20.6640625" style="3" customWidth="1"/>
-    <col min="7951" max="8192" width="9.109375" style="3"/>
-    <col min="8193" max="8193" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8196" max="8196" width="24.6640625" style="3" customWidth="1"/>
-    <col min="8197" max="8199" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8200" max="8200" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8201" max="8201" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8202" max="8204" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8205" max="8205" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8206" max="8206" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8207" max="8448" width="9.109375" style="3"/>
-    <col min="8449" max="8449" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8452" max="8452" width="24.6640625" style="3" customWidth="1"/>
-    <col min="8453" max="8455" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8456" max="8456" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8457" max="8457" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8458" max="8460" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8461" max="8461" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8462" max="8462" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8463" max="8704" width="9.109375" style="3"/>
-    <col min="8705" max="8705" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8708" max="8708" width="24.6640625" style="3" customWidth="1"/>
-    <col min="8709" max="8711" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8712" max="8712" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8713" max="8713" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8714" max="8716" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8717" max="8717" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8718" max="8718" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8719" max="8960" width="9.109375" style="3"/>
-    <col min="8961" max="8961" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8964" max="8964" width="24.6640625" style="3" customWidth="1"/>
-    <col min="8965" max="8967" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8968" max="8968" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8969" max="8969" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8970" max="8972" width="1.6640625" style="3" customWidth="1"/>
-    <col min="8973" max="8973" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8974" max="8974" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8975" max="9216" width="9.109375" style="3"/>
-    <col min="9217" max="9217" width="17.6640625" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="32.6640625" style="3" customWidth="1"/>
-    <col min="9220" max="9220" width="24.6640625" style="3" customWidth="1"/>
-    <col min="9221" max="9223" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9224" max="9224" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9225" max="9225" width="11.6640625" style="3" customWidth="1"/>
-    <col min="9226" max="9228" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9229" max="9229" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9230" max="9230" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9231" max="9472" width="9.109375" style="3"/>
-    <col min="9473" max="9473" width="17.6640625" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="32.6640625" style="3" customWidth="1"/>
-    <col min="9476" max="9476" width="24.6640625" style="3" customWidth="1"/>
-    <col min="9477" max="9479" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9480" max="9480" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9481" max="9481" width="11.6640625" style="3" customWidth="1"/>
-    <col min="9482" max="9484" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9485" max="9485" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9486" max="9486" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9487" max="9728" width="9.109375" style="3"/>
-    <col min="9729" max="9729" width="17.6640625" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="32.6640625" style="3" customWidth="1"/>
-    <col min="9732" max="9732" width="24.6640625" style="3" customWidth="1"/>
-    <col min="9733" max="9735" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9736" max="9736" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9737" max="9737" width="11.6640625" style="3" customWidth="1"/>
-    <col min="9738" max="9740" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9741" max="9741" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9742" max="9742" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9743" max="9984" width="9.109375" style="3"/>
-    <col min="9985" max="9985" width="17.6640625" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="32.6640625" style="3" customWidth="1"/>
-    <col min="9988" max="9988" width="24.6640625" style="3" customWidth="1"/>
-    <col min="9989" max="9991" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9992" max="9992" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9993" max="9993" width="11.6640625" style="3" customWidth="1"/>
-    <col min="9994" max="9996" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9997" max="9997" width="14.6640625" style="3" customWidth="1"/>
-    <col min="9998" max="9998" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9999" max="10240" width="9.109375" style="3"/>
-    <col min="10241" max="10241" width="17.6640625" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="32.6640625" style="3" customWidth="1"/>
-    <col min="10244" max="10244" width="24.6640625" style="3" customWidth="1"/>
-    <col min="10245" max="10247" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10248" max="10248" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10249" max="10249" width="11.6640625" style="3" customWidth="1"/>
-    <col min="10250" max="10252" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10253" max="10253" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10254" max="10254" width="20.6640625" style="3" customWidth="1"/>
-    <col min="10255" max="10496" width="9.109375" style="3"/>
-    <col min="10497" max="10497" width="17.6640625" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="32.6640625" style="3" customWidth="1"/>
-    <col min="10500" max="10500" width="24.6640625" style="3" customWidth="1"/>
-    <col min="10501" max="10503" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10504" max="10504" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10505" max="10505" width="11.6640625" style="3" customWidth="1"/>
-    <col min="10506" max="10508" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10509" max="10509" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10510" max="10510" width="20.6640625" style="3" customWidth="1"/>
-    <col min="10511" max="10752" width="9.109375" style="3"/>
-    <col min="10753" max="10753" width="17.6640625" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="32.6640625" style="3" customWidth="1"/>
-    <col min="10756" max="10756" width="24.6640625" style="3" customWidth="1"/>
-    <col min="10757" max="10759" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10760" max="10760" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10761" max="10761" width="11.6640625" style="3" customWidth="1"/>
-    <col min="10762" max="10764" width="1.6640625" style="3" customWidth="1"/>
-    <col min="10765" max="10765" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10766" max="10766" width="20.6640625" style="3" customWidth="1"/>
-    <col min="10767" max="11008" width="9.109375" style="3"/>
-    <col min="11009" max="11009" width="17.6640625" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11012" max="11012" width="24.6640625" style="3" customWidth="1"/>
-    <col min="11013" max="11015" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11016" max="11016" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11017" max="11017" width="11.6640625" style="3" customWidth="1"/>
-    <col min="11018" max="11020" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11021" max="11021" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11022" max="11022" width="20.6640625" style="3" customWidth="1"/>
-    <col min="11023" max="11264" width="9.109375" style="3"/>
-    <col min="11265" max="11265" width="17.6640625" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11268" max="11268" width="24.6640625" style="3" customWidth="1"/>
-    <col min="11269" max="11271" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11272" max="11272" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11273" max="11273" width="11.6640625" style="3" customWidth="1"/>
-    <col min="11274" max="11276" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11277" max="11277" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11278" max="11278" width="20.6640625" style="3" customWidth="1"/>
-    <col min="11279" max="11520" width="9.109375" style="3"/>
-    <col min="11521" max="11521" width="17.6640625" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11524" max="11524" width="24.6640625" style="3" customWidth="1"/>
-    <col min="11525" max="11527" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11528" max="11528" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11529" max="11529" width="11.6640625" style="3" customWidth="1"/>
-    <col min="11530" max="11532" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11533" max="11533" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11534" max="11534" width="20.6640625" style="3" customWidth="1"/>
-    <col min="11535" max="11776" width="9.109375" style="3"/>
-    <col min="11777" max="11777" width="17.6640625" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11780" max="11780" width="24.6640625" style="3" customWidth="1"/>
-    <col min="11781" max="11783" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11784" max="11784" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11785" max="11785" width="11.6640625" style="3" customWidth="1"/>
-    <col min="11786" max="11788" width="1.6640625" style="3" customWidth="1"/>
-    <col min="11789" max="11789" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11790" max="11790" width="20.6640625" style="3" customWidth="1"/>
-    <col min="11791" max="12032" width="9.109375" style="3"/>
-    <col min="12033" max="12033" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="32.6640625" style="3" customWidth="1"/>
-    <col min="12036" max="12036" width="24.6640625" style="3" customWidth="1"/>
-    <col min="12037" max="12039" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12040" max="12040" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12041" max="12041" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12042" max="12044" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12045" max="12045" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12046" max="12046" width="20.6640625" style="3" customWidth="1"/>
-    <col min="12047" max="12288" width="9.109375" style="3"/>
-    <col min="12289" max="12289" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="32.6640625" style="3" customWidth="1"/>
-    <col min="12292" max="12292" width="24.6640625" style="3" customWidth="1"/>
-    <col min="12293" max="12295" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12296" max="12296" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12297" max="12297" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12298" max="12300" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12301" max="12301" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12302" max="12302" width="20.6640625" style="3" customWidth="1"/>
-    <col min="12303" max="12544" width="9.109375" style="3"/>
-    <col min="12545" max="12545" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="32.6640625" style="3" customWidth="1"/>
-    <col min="12548" max="12548" width="24.6640625" style="3" customWidth="1"/>
-    <col min="12549" max="12551" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12552" max="12552" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12553" max="12553" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12554" max="12556" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12557" max="12557" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12558" max="12558" width="20.6640625" style="3" customWidth="1"/>
-    <col min="12559" max="12800" width="9.109375" style="3"/>
-    <col min="12801" max="12801" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="32.6640625" style="3" customWidth="1"/>
-    <col min="12804" max="12804" width="24.6640625" style="3" customWidth="1"/>
-    <col min="12805" max="12807" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12808" max="12808" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12809" max="12809" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12810" max="12812" width="1.6640625" style="3" customWidth="1"/>
-    <col min="12813" max="12813" width="14.6640625" style="3" customWidth="1"/>
-    <col min="12814" max="12814" width="20.6640625" style="3" customWidth="1"/>
-    <col min="12815" max="13056" width="9.109375" style="3"/>
-    <col min="13057" max="13057" width="17.6640625" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="32.6640625" style="3" customWidth="1"/>
-    <col min="13060" max="13060" width="24.6640625" style="3" customWidth="1"/>
-    <col min="13061" max="13063" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13064" max="13064" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13065" max="13065" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13066" max="13068" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13069" max="13069" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13070" max="13070" width="20.6640625" style="3" customWidth="1"/>
-    <col min="13071" max="13312" width="9.109375" style="3"/>
-    <col min="13313" max="13313" width="17.6640625" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="32.6640625" style="3" customWidth="1"/>
-    <col min="13316" max="13316" width="24.6640625" style="3" customWidth="1"/>
-    <col min="13317" max="13319" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13320" max="13320" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13321" max="13321" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13322" max="13324" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13325" max="13325" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13326" max="13326" width="20.6640625" style="3" customWidth="1"/>
-    <col min="13327" max="13568" width="9.109375" style="3"/>
-    <col min="13569" max="13569" width="17.6640625" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="32.6640625" style="3" customWidth="1"/>
-    <col min="13572" max="13572" width="24.6640625" style="3" customWidth="1"/>
-    <col min="13573" max="13575" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13576" max="13576" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13577" max="13577" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13578" max="13580" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13581" max="13581" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13582" max="13582" width="20.6640625" style="3" customWidth="1"/>
-    <col min="13583" max="13824" width="9.109375" style="3"/>
-    <col min="13825" max="13825" width="17.6640625" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="32.6640625" style="3" customWidth="1"/>
-    <col min="13828" max="13828" width="24.6640625" style="3" customWidth="1"/>
-    <col min="13829" max="13831" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13832" max="13832" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13833" max="13833" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13834" max="13836" width="1.6640625" style="3" customWidth="1"/>
-    <col min="13837" max="13837" width="14.6640625" style="3" customWidth="1"/>
-    <col min="13838" max="13838" width="20.6640625" style="3" customWidth="1"/>
-    <col min="13839" max="14080" width="9.109375" style="3"/>
-    <col min="14081" max="14081" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="32.6640625" style="3" customWidth="1"/>
-    <col min="14084" max="14084" width="24.6640625" style="3" customWidth="1"/>
-    <col min="14085" max="14087" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14088" max="14088" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14089" max="14089" width="11.6640625" style="3" customWidth="1"/>
-    <col min="14090" max="14092" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14093" max="14093" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14094" max="14094" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14095" max="14336" width="9.109375" style="3"/>
-    <col min="14337" max="14337" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="32.6640625" style="3" customWidth="1"/>
-    <col min="14340" max="14340" width="24.6640625" style="3" customWidth="1"/>
-    <col min="14341" max="14343" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14344" max="14344" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14345" max="14345" width="11.6640625" style="3" customWidth="1"/>
-    <col min="14346" max="14348" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14349" max="14349" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14350" max="14350" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14351" max="14592" width="9.109375" style="3"/>
-    <col min="14593" max="14593" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="32.6640625" style="3" customWidth="1"/>
-    <col min="14596" max="14596" width="24.6640625" style="3" customWidth="1"/>
-    <col min="14597" max="14599" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14600" max="14600" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14601" max="14601" width="11.6640625" style="3" customWidth="1"/>
-    <col min="14602" max="14604" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14605" max="14605" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14606" max="14606" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14607" max="14848" width="9.109375" style="3"/>
-    <col min="14849" max="14849" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="32.6640625" style="3" customWidth="1"/>
-    <col min="14852" max="14852" width="24.6640625" style="3" customWidth="1"/>
-    <col min="14853" max="14855" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14856" max="14856" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14857" max="14857" width="11.6640625" style="3" customWidth="1"/>
-    <col min="14858" max="14860" width="1.6640625" style="3" customWidth="1"/>
-    <col min="14861" max="14861" width="14.6640625" style="3" customWidth="1"/>
-    <col min="14862" max="14862" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14863" max="15104" width="9.109375" style="3"/>
-    <col min="15105" max="15105" width="17.6640625" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="32.6640625" style="3" customWidth="1"/>
-    <col min="15108" max="15108" width="24.6640625" style="3" customWidth="1"/>
-    <col min="15109" max="15111" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15112" max="15112" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15113" max="15113" width="11.6640625" style="3" customWidth="1"/>
-    <col min="15114" max="15116" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15117" max="15117" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15118" max="15118" width="20.6640625" style="3" customWidth="1"/>
-    <col min="15119" max="15360" width="9.109375" style="3"/>
-    <col min="15361" max="15361" width="17.6640625" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="32.6640625" style="3" customWidth="1"/>
-    <col min="15364" max="15364" width="24.6640625" style="3" customWidth="1"/>
-    <col min="15365" max="15367" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15368" max="15368" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15369" max="15369" width="11.6640625" style="3" customWidth="1"/>
-    <col min="15370" max="15372" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15373" max="15373" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15374" max="15374" width="20.6640625" style="3" customWidth="1"/>
-    <col min="15375" max="15616" width="9.109375" style="3"/>
-    <col min="15617" max="15617" width="17.6640625" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="32.6640625" style="3" customWidth="1"/>
-    <col min="15620" max="15620" width="24.6640625" style="3" customWidth="1"/>
-    <col min="15621" max="15623" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15624" max="15624" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15625" max="15625" width="11.6640625" style="3" customWidth="1"/>
-    <col min="15626" max="15628" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15629" max="15629" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15630" max="15630" width="20.6640625" style="3" customWidth="1"/>
-    <col min="15631" max="15872" width="9.109375" style="3"/>
-    <col min="15873" max="15873" width="17.6640625" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="32.6640625" style="3" customWidth="1"/>
-    <col min="15876" max="15876" width="24.6640625" style="3" customWidth="1"/>
-    <col min="15877" max="15879" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15880" max="15880" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15881" max="15881" width="11.6640625" style="3" customWidth="1"/>
-    <col min="15882" max="15884" width="1.6640625" style="3" customWidth="1"/>
-    <col min="15885" max="15885" width="14.6640625" style="3" customWidth="1"/>
-    <col min="15886" max="15886" width="20.6640625" style="3" customWidth="1"/>
-    <col min="15887" max="16128" width="9.109375" style="3"/>
-    <col min="16129" max="16129" width="17.6640625" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="18.6640625" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="32.6640625" style="3" customWidth="1"/>
-    <col min="16132" max="16132" width="24.6640625" style="3" customWidth="1"/>
-    <col min="16133" max="16135" width="1.6640625" style="3" customWidth="1"/>
-    <col min="16136" max="16136" width="14.6640625" style="3" customWidth="1"/>
-    <col min="16137" max="16137" width="11.6640625" style="3" customWidth="1"/>
-    <col min="16138" max="16140" width="1.6640625" style="3" customWidth="1"/>
-    <col min="16141" max="16141" width="14.6640625" style="3" customWidth="1"/>
-    <col min="16142" max="16142" width="20.6640625" style="3" customWidth="1"/>
-    <col min="16143" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15" max="256" width="9.140625" style="3"/>
+    <col min="257" max="257" width="17.7109375" style="3" customWidth="1"/>
+    <col min="258" max="258" width="18.7109375" style="3" customWidth="1"/>
+    <col min="259" max="259" width="32.7109375" style="3" customWidth="1"/>
+    <col min="260" max="260" width="24.7109375" style="3" customWidth="1"/>
+    <col min="261" max="263" width="1.7109375" style="3" customWidth="1"/>
+    <col min="264" max="264" width="14.7109375" style="3" customWidth="1"/>
+    <col min="265" max="265" width="11.7109375" style="3" customWidth="1"/>
+    <col min="266" max="268" width="1.7109375" style="3" customWidth="1"/>
+    <col min="269" max="269" width="14.7109375" style="3" customWidth="1"/>
+    <col min="270" max="270" width="20.7109375" style="3" customWidth="1"/>
+    <col min="271" max="512" width="9.140625" style="3"/>
+    <col min="513" max="513" width="17.7109375" style="3" customWidth="1"/>
+    <col min="514" max="514" width="18.7109375" style="3" customWidth="1"/>
+    <col min="515" max="515" width="32.7109375" style="3" customWidth="1"/>
+    <col min="516" max="516" width="24.7109375" style="3" customWidth="1"/>
+    <col min="517" max="519" width="1.7109375" style="3" customWidth="1"/>
+    <col min="520" max="520" width="14.7109375" style="3" customWidth="1"/>
+    <col min="521" max="521" width="11.7109375" style="3" customWidth="1"/>
+    <col min="522" max="524" width="1.7109375" style="3" customWidth="1"/>
+    <col min="525" max="525" width="14.7109375" style="3" customWidth="1"/>
+    <col min="526" max="526" width="20.7109375" style="3" customWidth="1"/>
+    <col min="527" max="768" width="9.140625" style="3"/>
+    <col min="769" max="769" width="17.7109375" style="3" customWidth="1"/>
+    <col min="770" max="770" width="18.7109375" style="3" customWidth="1"/>
+    <col min="771" max="771" width="32.7109375" style="3" customWidth="1"/>
+    <col min="772" max="772" width="24.7109375" style="3" customWidth="1"/>
+    <col min="773" max="775" width="1.7109375" style="3" customWidth="1"/>
+    <col min="776" max="776" width="14.7109375" style="3" customWidth="1"/>
+    <col min="777" max="777" width="11.7109375" style="3" customWidth="1"/>
+    <col min="778" max="780" width="1.7109375" style="3" customWidth="1"/>
+    <col min="781" max="781" width="14.7109375" style="3" customWidth="1"/>
+    <col min="782" max="782" width="20.7109375" style="3" customWidth="1"/>
+    <col min="783" max="1024" width="9.140625" style="3"/>
+    <col min="1025" max="1025" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1028" max="1028" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1029" max="1031" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1032" max="1032" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1033" max="1033" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1034" max="1036" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1037" max="1037" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1038" max="1038" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1039" max="1280" width="9.140625" style="3"/>
+    <col min="1281" max="1281" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1284" max="1284" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1285" max="1287" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1288" max="1288" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1289" max="1289" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1290" max="1292" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1293" max="1293" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1294" max="1294" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1295" max="1536" width="9.140625" style="3"/>
+    <col min="1537" max="1537" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1540" max="1540" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1541" max="1543" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1544" max="1544" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1545" max="1545" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1546" max="1548" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1549" max="1549" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1550" max="1550" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1551" max="1792" width="9.140625" style="3"/>
+    <col min="1793" max="1793" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1796" max="1796" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1797" max="1799" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1800" max="1800" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1801" max="1801" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1802" max="1804" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1805" max="1805" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1806" max="1806" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1807" max="2048" width="9.140625" style="3"/>
+    <col min="2049" max="2049" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2052" max="2052" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2053" max="2055" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2056" max="2056" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2057" max="2057" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2058" max="2060" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2061" max="2061" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2062" max="2062" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2063" max="2304" width="9.140625" style="3"/>
+    <col min="2305" max="2305" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2308" max="2308" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2309" max="2311" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2312" max="2312" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2313" max="2313" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2314" max="2316" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2317" max="2317" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2318" max="2318" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2319" max="2560" width="9.140625" style="3"/>
+    <col min="2561" max="2561" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2564" max="2564" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2565" max="2567" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2568" max="2568" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2569" max="2569" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2570" max="2572" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2573" max="2573" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2574" max="2574" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2575" max="2816" width="9.140625" style="3"/>
+    <col min="2817" max="2817" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2820" max="2820" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2821" max="2823" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2824" max="2824" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2825" max="2825" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2826" max="2828" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2829" max="2829" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2830" max="2830" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2831" max="3072" width="9.140625" style="3"/>
+    <col min="3073" max="3073" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="32.7109375" style="3" customWidth="1"/>
+    <col min="3076" max="3076" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3077" max="3079" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3080" max="3080" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3081" max="3081" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3082" max="3084" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3085" max="3085" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3086" max="3086" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3087" max="3328" width="9.140625" style="3"/>
+    <col min="3329" max="3329" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="32.7109375" style="3" customWidth="1"/>
+    <col min="3332" max="3332" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3333" max="3335" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3336" max="3336" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3337" max="3337" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3338" max="3340" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3341" max="3341" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3342" max="3342" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3343" max="3584" width="9.140625" style="3"/>
+    <col min="3585" max="3585" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="32.7109375" style="3" customWidth="1"/>
+    <col min="3588" max="3588" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3589" max="3591" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3592" max="3592" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3593" max="3593" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3594" max="3596" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3597" max="3597" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3598" max="3598" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3599" max="3840" width="9.140625" style="3"/>
+    <col min="3841" max="3841" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="32.7109375" style="3" customWidth="1"/>
+    <col min="3844" max="3844" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3845" max="3847" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3848" max="3848" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3849" max="3849" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3850" max="3852" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3853" max="3853" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3854" max="3854" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3855" max="4096" width="9.140625" style="3"/>
+    <col min="4097" max="4097" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4100" max="4100" width="24.7109375" style="3" customWidth="1"/>
+    <col min="4101" max="4103" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4104" max="4104" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4105" max="4105" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4106" max="4108" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4109" max="4109" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4110" max="4110" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4111" max="4352" width="9.140625" style="3"/>
+    <col min="4353" max="4353" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4356" max="4356" width="24.7109375" style="3" customWidth="1"/>
+    <col min="4357" max="4359" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4360" max="4360" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4361" max="4361" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4362" max="4364" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4365" max="4365" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4366" max="4366" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4367" max="4608" width="9.140625" style="3"/>
+    <col min="4609" max="4609" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4612" max="4612" width="24.7109375" style="3" customWidth="1"/>
+    <col min="4613" max="4615" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4616" max="4616" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4617" max="4617" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4618" max="4620" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4621" max="4621" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4622" max="4622" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4623" max="4864" width="9.140625" style="3"/>
+    <col min="4865" max="4865" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4868" max="4868" width="24.7109375" style="3" customWidth="1"/>
+    <col min="4869" max="4871" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4872" max="4872" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4873" max="4873" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4874" max="4876" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4877" max="4877" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4878" max="4878" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4879" max="5120" width="9.140625" style="3"/>
+    <col min="5121" max="5121" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="32.7109375" style="3" customWidth="1"/>
+    <col min="5124" max="5124" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5125" max="5127" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5128" max="5128" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5129" max="5129" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5130" max="5132" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5133" max="5133" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5134" max="5134" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5135" max="5376" width="9.140625" style="3"/>
+    <col min="5377" max="5377" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="32.7109375" style="3" customWidth="1"/>
+    <col min="5380" max="5380" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5381" max="5383" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5384" max="5384" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5385" max="5385" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5386" max="5388" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5389" max="5389" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5390" max="5390" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5391" max="5632" width="9.140625" style="3"/>
+    <col min="5633" max="5633" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="32.7109375" style="3" customWidth="1"/>
+    <col min="5636" max="5636" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5637" max="5639" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5640" max="5640" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5641" max="5641" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5642" max="5644" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5645" max="5645" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5646" max="5646" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5647" max="5888" width="9.140625" style="3"/>
+    <col min="5889" max="5889" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="32.7109375" style="3" customWidth="1"/>
+    <col min="5892" max="5892" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5893" max="5895" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5896" max="5896" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5897" max="5897" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5898" max="5900" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5901" max="5901" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5902" max="5902" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5903" max="6144" width="9.140625" style="3"/>
+    <col min="6145" max="6145" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="32.7109375" style="3" customWidth="1"/>
+    <col min="6148" max="6148" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6149" max="6151" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6152" max="6152" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6153" max="6153" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6154" max="6156" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6157" max="6157" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6158" max="6158" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6159" max="6400" width="9.140625" style="3"/>
+    <col min="6401" max="6401" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="32.7109375" style="3" customWidth="1"/>
+    <col min="6404" max="6404" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6405" max="6407" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6408" max="6408" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6409" max="6409" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6410" max="6412" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6413" max="6413" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6414" max="6414" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6415" max="6656" width="9.140625" style="3"/>
+    <col min="6657" max="6657" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="32.7109375" style="3" customWidth="1"/>
+    <col min="6660" max="6660" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6661" max="6663" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6664" max="6664" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6665" max="6665" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6666" max="6668" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6669" max="6669" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6670" max="6670" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6671" max="6912" width="9.140625" style="3"/>
+    <col min="6913" max="6913" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="32.7109375" style="3" customWidth="1"/>
+    <col min="6916" max="6916" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6917" max="6919" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6920" max="6920" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6921" max="6921" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6922" max="6924" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6925" max="6925" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6926" max="6926" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6927" max="7168" width="9.140625" style="3"/>
+    <col min="7169" max="7169" width="17.7109375" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="32.7109375" style="3" customWidth="1"/>
+    <col min="7172" max="7172" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7173" max="7175" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7176" max="7176" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7177" max="7177" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7178" max="7180" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7181" max="7181" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7182" max="7182" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7183" max="7424" width="9.140625" style="3"/>
+    <col min="7425" max="7425" width="17.7109375" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="32.7109375" style="3" customWidth="1"/>
+    <col min="7428" max="7428" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7429" max="7431" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7432" max="7432" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7433" max="7433" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7434" max="7436" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7437" max="7437" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7438" max="7438" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7439" max="7680" width="9.140625" style="3"/>
+    <col min="7681" max="7681" width="17.7109375" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="32.7109375" style="3" customWidth="1"/>
+    <col min="7684" max="7684" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7685" max="7687" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7688" max="7688" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7689" max="7689" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7690" max="7692" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7693" max="7693" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7694" max="7694" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7695" max="7936" width="9.140625" style="3"/>
+    <col min="7937" max="7937" width="17.7109375" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="32.7109375" style="3" customWidth="1"/>
+    <col min="7940" max="7940" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7941" max="7943" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7944" max="7944" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7945" max="7945" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7946" max="7948" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7949" max="7949" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7950" max="7950" width="20.7109375" style="3" customWidth="1"/>
+    <col min="7951" max="8192" width="9.140625" style="3"/>
+    <col min="8193" max="8193" width="17.7109375" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="32.7109375" style="3" customWidth="1"/>
+    <col min="8196" max="8196" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8197" max="8199" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8200" max="8200" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8201" max="8201" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8202" max="8204" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8205" max="8205" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8206" max="8206" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8207" max="8448" width="9.140625" style="3"/>
+    <col min="8449" max="8449" width="17.7109375" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="32.7109375" style="3" customWidth="1"/>
+    <col min="8452" max="8452" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8453" max="8455" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8456" max="8456" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8457" max="8457" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8458" max="8460" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8461" max="8461" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8462" max="8462" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8463" max="8704" width="9.140625" style="3"/>
+    <col min="8705" max="8705" width="17.7109375" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="32.7109375" style="3" customWidth="1"/>
+    <col min="8708" max="8708" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8709" max="8711" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8712" max="8712" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8713" max="8713" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8714" max="8716" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8717" max="8717" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8718" max="8718" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8719" max="8960" width="9.140625" style="3"/>
+    <col min="8961" max="8961" width="17.7109375" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="32.7109375" style="3" customWidth="1"/>
+    <col min="8964" max="8964" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8965" max="8967" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8968" max="8968" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8969" max="8969" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8970" max="8972" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8973" max="8973" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8974" max="8974" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8975" max="9216" width="9.140625" style="3"/>
+    <col min="9217" max="9217" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="32.7109375" style="3" customWidth="1"/>
+    <col min="9220" max="9220" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9221" max="9223" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9224" max="9224" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9225" max="9225" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9226" max="9228" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9229" max="9229" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9230" max="9230" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9231" max="9472" width="9.140625" style="3"/>
+    <col min="9473" max="9473" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="32.7109375" style="3" customWidth="1"/>
+    <col min="9476" max="9476" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9477" max="9479" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9480" max="9480" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9481" max="9481" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9482" max="9484" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9485" max="9485" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9486" max="9486" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9487" max="9728" width="9.140625" style="3"/>
+    <col min="9729" max="9729" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="32.7109375" style="3" customWidth="1"/>
+    <col min="9732" max="9732" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9733" max="9735" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9736" max="9736" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9737" max="9737" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9738" max="9740" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9741" max="9741" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9742" max="9742" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9743" max="9984" width="9.140625" style="3"/>
+    <col min="9985" max="9985" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="32.7109375" style="3" customWidth="1"/>
+    <col min="9988" max="9988" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9989" max="9991" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9992" max="9992" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9993" max="9993" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9994" max="9996" width="1.7109375" style="3" customWidth="1"/>
+    <col min="9997" max="9997" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9998" max="9998" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9999" max="10240" width="9.140625" style="3"/>
+    <col min="10241" max="10241" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="32.7109375" style="3" customWidth="1"/>
+    <col min="10244" max="10244" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10245" max="10247" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10248" max="10248" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10249" max="10249" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10250" max="10252" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10253" max="10253" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10254" max="10254" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10255" max="10496" width="9.140625" style="3"/>
+    <col min="10497" max="10497" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="32.7109375" style="3" customWidth="1"/>
+    <col min="10500" max="10500" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10501" max="10503" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10504" max="10504" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10505" max="10505" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10506" max="10508" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10509" max="10509" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10510" max="10510" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10511" max="10752" width="9.140625" style="3"/>
+    <col min="10753" max="10753" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="32.7109375" style="3" customWidth="1"/>
+    <col min="10756" max="10756" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10757" max="10759" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10760" max="10760" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10761" max="10761" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10762" max="10764" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10765" max="10765" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10766" max="10766" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10767" max="11008" width="9.140625" style="3"/>
+    <col min="11009" max="11009" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11012" max="11012" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11013" max="11015" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11016" max="11016" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11017" max="11017" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11018" max="11020" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11021" max="11021" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11022" max="11022" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11023" max="11264" width="9.140625" style="3"/>
+    <col min="11265" max="11265" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11268" max="11268" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11269" max="11271" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11272" max="11272" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11273" max="11273" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11274" max="11276" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11277" max="11277" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11278" max="11278" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11279" max="11520" width="9.140625" style="3"/>
+    <col min="11521" max="11521" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11524" max="11524" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11525" max="11527" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11528" max="11528" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11529" max="11529" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11530" max="11532" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11533" max="11533" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11534" max="11534" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11535" max="11776" width="9.140625" style="3"/>
+    <col min="11777" max="11777" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11780" max="11780" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11781" max="11783" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11784" max="11784" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11785" max="11785" width="11.7109375" style="3" customWidth="1"/>
+    <col min="11786" max="11788" width="1.7109375" style="3" customWidth="1"/>
+    <col min="11789" max="11789" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11790" max="11790" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11791" max="12032" width="9.140625" style="3"/>
+    <col min="12033" max="12033" width="17.7109375" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="32.7109375" style="3" customWidth="1"/>
+    <col min="12036" max="12036" width="24.7109375" style="3" customWidth="1"/>
+    <col min="12037" max="12039" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12040" max="12040" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12041" max="12041" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12042" max="12044" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12045" max="12045" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12046" max="12046" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12047" max="12288" width="9.140625" style="3"/>
+    <col min="12289" max="12289" width="17.7109375" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="32.7109375" style="3" customWidth="1"/>
+    <col min="12292" max="12292" width="24.7109375" style="3" customWidth="1"/>
+    <col min="12293" max="12295" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12296" max="12296" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12297" max="12297" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12298" max="12300" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12301" max="12301" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12302" max="12302" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12303" max="12544" width="9.140625" style="3"/>
+    <col min="12545" max="12545" width="17.7109375" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="32.7109375" style="3" customWidth="1"/>
+    <col min="12548" max="12548" width="24.7109375" style="3" customWidth="1"/>
+    <col min="12549" max="12551" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12552" max="12552" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12553" max="12553" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12554" max="12556" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12557" max="12557" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12558" max="12558" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12559" max="12800" width="9.140625" style="3"/>
+    <col min="12801" max="12801" width="17.7109375" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="32.7109375" style="3" customWidth="1"/>
+    <col min="12804" max="12804" width="24.7109375" style="3" customWidth="1"/>
+    <col min="12805" max="12807" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12808" max="12808" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12809" max="12809" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12810" max="12812" width="1.7109375" style="3" customWidth="1"/>
+    <col min="12813" max="12813" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12814" max="12814" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12815" max="13056" width="9.140625" style="3"/>
+    <col min="13057" max="13057" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="32.7109375" style="3" customWidth="1"/>
+    <col min="13060" max="13060" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13061" max="13063" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13064" max="13064" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13065" max="13065" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13066" max="13068" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13069" max="13069" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13070" max="13070" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13071" max="13312" width="9.140625" style="3"/>
+    <col min="13313" max="13313" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="32.7109375" style="3" customWidth="1"/>
+    <col min="13316" max="13316" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13317" max="13319" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13320" max="13320" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13321" max="13321" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13322" max="13324" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13325" max="13325" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13326" max="13326" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13327" max="13568" width="9.140625" style="3"/>
+    <col min="13569" max="13569" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="32.7109375" style="3" customWidth="1"/>
+    <col min="13572" max="13572" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13573" max="13575" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13576" max="13576" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13577" max="13577" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13578" max="13580" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13581" max="13581" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13582" max="13582" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13583" max="13824" width="9.140625" style="3"/>
+    <col min="13825" max="13825" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="32.7109375" style="3" customWidth="1"/>
+    <col min="13828" max="13828" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13829" max="13831" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13832" max="13832" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13833" max="13833" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13834" max="13836" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13837" max="13837" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13838" max="13838" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13839" max="14080" width="9.140625" style="3"/>
+    <col min="14081" max="14081" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="32.7109375" style="3" customWidth="1"/>
+    <col min="14084" max="14084" width="24.7109375" style="3" customWidth="1"/>
+    <col min="14085" max="14087" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14088" max="14088" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14089" max="14089" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14090" max="14092" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14093" max="14093" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14094" max="14094" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14095" max="14336" width="9.140625" style="3"/>
+    <col min="14337" max="14337" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="32.7109375" style="3" customWidth="1"/>
+    <col min="14340" max="14340" width="24.7109375" style="3" customWidth="1"/>
+    <col min="14341" max="14343" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14344" max="14344" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14345" max="14345" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14346" max="14348" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14349" max="14349" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14350" max="14350" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14351" max="14592" width="9.140625" style="3"/>
+    <col min="14593" max="14593" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="32.7109375" style="3" customWidth="1"/>
+    <col min="14596" max="14596" width="24.7109375" style="3" customWidth="1"/>
+    <col min="14597" max="14599" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14600" max="14600" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14601" max="14601" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14602" max="14604" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14605" max="14605" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14606" max="14606" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14607" max="14848" width="9.140625" style="3"/>
+    <col min="14849" max="14849" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="32.7109375" style="3" customWidth="1"/>
+    <col min="14852" max="14852" width="24.7109375" style="3" customWidth="1"/>
+    <col min="14853" max="14855" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14856" max="14856" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14857" max="14857" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14858" max="14860" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14861" max="14861" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14862" max="14862" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14863" max="15104" width="9.140625" style="3"/>
+    <col min="15105" max="15105" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="32.7109375" style="3" customWidth="1"/>
+    <col min="15108" max="15108" width="24.7109375" style="3" customWidth="1"/>
+    <col min="15109" max="15111" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15112" max="15112" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15113" max="15113" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15114" max="15116" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15117" max="15117" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15118" max="15118" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15119" max="15360" width="9.140625" style="3"/>
+    <col min="15361" max="15361" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="32.7109375" style="3" customWidth="1"/>
+    <col min="15364" max="15364" width="24.7109375" style="3" customWidth="1"/>
+    <col min="15365" max="15367" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15368" max="15368" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15369" max="15369" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15370" max="15372" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15373" max="15373" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15374" max="15374" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15375" max="15616" width="9.140625" style="3"/>
+    <col min="15617" max="15617" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="32.7109375" style="3" customWidth="1"/>
+    <col min="15620" max="15620" width="24.7109375" style="3" customWidth="1"/>
+    <col min="15621" max="15623" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15624" max="15624" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15625" max="15625" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15626" max="15628" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15629" max="15629" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15630" max="15630" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15631" max="15872" width="9.140625" style="3"/>
+    <col min="15873" max="15873" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="32.7109375" style="3" customWidth="1"/>
+    <col min="15876" max="15876" width="24.7109375" style="3" customWidth="1"/>
+    <col min="15877" max="15879" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15880" max="15880" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15881" max="15881" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15882" max="15884" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15885" max="15885" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15886" max="15886" width="20.7109375" style="3" customWidth="1"/>
+    <col min="15887" max="16128" width="9.140625" style="3"/>
+    <col min="16129" max="16129" width="17.7109375" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="18.7109375" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="32.7109375" style="3" customWidth="1"/>
+    <col min="16132" max="16132" width="24.7109375" style="3" customWidth="1"/>
+    <col min="16133" max="16135" width="1.7109375" style="3" customWidth="1"/>
+    <col min="16136" max="16136" width="14.7109375" style="3" customWidth="1"/>
+    <col min="16137" max="16137" width="11.7109375" style="3" customWidth="1"/>
+    <col min="16138" max="16140" width="1.7109375" style="3" customWidth="1"/>
+    <col min="16141" max="16141" width="14.7109375" style="3" customWidth="1"/>
+    <col min="16142" max="16142" width="20.7109375" style="3" customWidth="1"/>
+    <col min="16143" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -30084,7 +30091,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -30110,7 +30117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ThongTri/rpt_vdt_thongtri_hopthuc.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ThongTri/rpt_vdt_thongtri_hopthuc.xlsx
@@ -16,7 +16,7 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">Sheet1!$A$14:$K$14</definedName>
+    <definedName name="__Items__">Sheet1!$A$13:$K$14</definedName>
     <definedName name="Google_Sheet_Link_1072314641_1034912938" hidden="1">chuong_pl_4_name</definedName>
     <definedName name="Google_Sheet_Link_1139084164_131724567" hidden="1">chuong_pl_8_name</definedName>
     <definedName name="Google_Sheet_Link_1194448143_915747499" hidden="1">chuong_pl_5_name</definedName>
@@ -151,9 +151,6 @@
     <t>Ghi sổ ngày…tháng….năm &lt;#Nam&gt;</t>
   </si>
   <si>
-    <t>&lt;#NoiDung&gt;</t>
-  </si>
-  <si>
     <t>&lt;#DiaDiem;&gt;, &lt;#evaluate(LOWER(&lt;#Ngay;&gt;))&gt;</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>&lt;#Ten3;&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;#DonViTinh;'Đơn vị tính: Đồng'&gt; </t>
-  </si>
-  <si>
     <t>&lt;#auto page breaks&gt;</t>
   </si>
   <si>
@@ -200,40 +194,6 @@
   </si>
   <si>
     <t>&lt;#TieuDe2;Cấp hợp thức XDCB&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>Ấn định thông tri này là:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;#TienBangChu&gt;</t>
-    </r>
   </si>
   <si>
     <r>
@@ -276,12 +236,52 @@
   <si>
     <t>&lt;#Items.sM&gt;</t>
   </si>
+  <si>
+    <t>&lt;#Items.STenLoaiCongTrinh&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị tính: &lt;#DonViTinh;'đồng'&gt; </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấn định thông tri này là:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;#TienBangChu&gt;&lt;#Row Height(Autofit)&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +341,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="163"/>
     </font>
     <font>
@@ -641,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
@@ -656,7 +649,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -674,81 +667,89 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1332,12 +1333,12 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1362,16 +1363,16 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="7"/>
@@ -1420,19 +1421,19 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>50</v>
+      <c r="A5" s="42" t="s">
+        <v>48</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1450,19 +1451,19 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>51</v>
+      <c r="A6" s="42" t="s">
+        <v>49</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1515,7 +1516,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1547,7 +1548,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -1608,13 +1609,13 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="43" t="s">
-        <v>48</v>
+      <c r="G11" s="31" t="s">
+        <v>61</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1644,14 +1645,14 @@
       <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="20" t="s">
         <v>25</v>
       </c>
@@ -1676,16 +1677,16 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="46" t="s">
-        <v>35</v>
+      <c r="E13" s="51" t="s">
+        <v>60</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="22" t="s">
-        <v>56</v>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1704,28 +1705,28 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>57</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1748,13 +1749,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1776,13 +1777,13 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1804,13 +1805,13 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="25"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1832,13 +1833,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1860,13 +1861,13 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="25"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1888,13 +1889,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="25"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1916,13 +1917,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="25"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1941,21 +1942,21 @@
     </row>
     <row r="22" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="22" t="s">
-        <v>56</v>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -1973,20 +1974,20 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>52</v>
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>62</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2039,9 +2040,9 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="12"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -2094,16 +2095,16 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="49" t="s">
+        <v>35</v>
+      </c>
       <c r="J27" s="49"/>
-      <c r="K27" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2118,23 +2119,23 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2152,23 +2153,23 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="32" t="s">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="35"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2186,23 +2187,23 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="36"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2220,17 +2221,17 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2248,17 +2249,17 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2276,23 +2277,23 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="32" t="s">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="35"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -29302,12 +29303,20 @@
       <c r="Z997" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:K33"/>
+  <mergeCells count="31">
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
@@ -29319,18 +29328,12 @@
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="E12:J12"/>
     <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="A30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
